--- a/Model_setup/NEISO_data_file/wind_caps.xlsx
+++ b/Model_setup/NEISO_data_file/wind_caps.xlsx
@@ -363,7 +363,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -411,10 +411,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
